--- a/vendordatason.xlsx
+++ b/vendordatason.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="BuÇalismaKitabi" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/21e53a716e7564c8/Masaüstü/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\GitHub\emu430-fall2023-team-ctrl_s\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A058862-C925-4B0E-93BE-B8475E9A49E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904DE86C-5154-44BC-AFB0-36DF9E7A3C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vendordata" sheetId="1" r:id="rId1"/>
@@ -480,7 +480,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1314,7 +1314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="A1:BW74"/>
   <sheetViews>
@@ -18128,7 +18128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="A1:BV75"/>
   <sheetViews>
@@ -34779,12 +34779,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="A1:C3321"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A1440" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36397,7 +36397,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>148</v>
+        <v>2</v>
       </c>
       <c r="B147" t="s">
         <v>147</v>

--- a/vendordatason.xlsx
+++ b/vendordatason.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akif\Documents\GitHub\emu430-fall2023-team-ctrl_s\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA34D628-F498-4AF7-9A3D-17C5EC648B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F382FB-11C6-4C25-AD00-55B4C3A80627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -474,7 +474,7 @@
     <t>Brand</t>
   </si>
   <si>
-    <t>Rates</t>
+    <t>Rate</t>
   </si>
 </sst>
 </file>
@@ -958,8 +958,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -34784,7 +34787,7 @@
   <dimension ref="A1:C3321"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34796,7 +34799,7 @@
       <c r="B1" t="s">
         <v>149</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>150</v>
       </c>
     </row>
